--- a/data/trans_camb/P10_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 14,83</t>
+          <t>-12,5; 12,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 13,64</t>
+          <t>-11,17; 12,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 11,45</t>
+          <t>-8,88; 7,73</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>-0,59%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 24,23</t>
+          <t>-15,58; 19,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 23,28</t>
+          <t>-14,0; 18,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 19,23</t>
+          <t>-11,39; 11,28</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,8</t>
+          <t>-5,81; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,71</t>
+          <t>-3,77; 4,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,33</t>
+          <t>-3,35; 3,21</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,84</t>
+          <t>-6,32; 4,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,41</t>
+          <t>-4,12; 5,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,98</t>
+          <t>-3,63; 3,6</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1,9</t>
+          <t>-8,77; 5,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,02</t>
+          <t>-3,79; 5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,84</t>
+          <t>-4,79; 3,98</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-0,49%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 2,08</t>
+          <t>-9,34; 5,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,46</t>
+          <t>-4,03; 6,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,02</t>
+          <t>-5,23; 4,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,01</t>
+          <t>-2,22; 7,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,96</t>
+          <t>-2,57; 6,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,72</t>
+          <t>-0,79; 5,55</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,84</t>
+          <t>-2,62; 8,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,05</t>
+          <t>-3,1; 7,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 4,45</t>
+          <t>-0,93; 6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,47</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 4,93</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 4,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 5,33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 6,06</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 4,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P10_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.359529263567705</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.147844357809347</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.327858028765683</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,5; 12,77</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; 12,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 7,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.28476226852311</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.76804707852081</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.760462774270939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,75%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.87080108177418</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.10679430531282</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.95045436560305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,58; 19,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 18,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 11,28</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.01789425156916462</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.0158724887237922</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01794056855315245</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1669846443988469</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1637687202878347</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.12720348982202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 3,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 4,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 3,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1775940034716162</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.167474511172421</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1025214688370591</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,92%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,05%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.5308973111850523</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.011732657078479</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2668553017066477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,32; 4,6</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 5,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 3,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.519333716542603</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.060123299978723</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.97920950216753</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.277841880360143</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.379507156102591</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.462975753666766</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 5,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 5,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 3,98</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.00587731337758724</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01120944785489694</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.002955475892929624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.05954467429570787</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.03260094469224712</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03234510878305002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,34; 5,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 6,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 4,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.04891922936064922</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.06120496213334314</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.03928531113338572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.6922454184663307</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.8470872547885033</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.05742827171649756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 7,04</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 6,1</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 5,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.524918043649119</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.432377211580409</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.277017079700123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.919123603367569</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.874658892693597</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.247477312423988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 8,61</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 7,78</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 6,9</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.007682657487603401</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.009243596816110238</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.000631553300204766</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.08089734036381818</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.03648443031404344</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.04617451377531881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,47</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 4,93</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 4,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.06889514884328743</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.06622804317466324</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.04802099208806027</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.6360370923881198</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2544720600435646</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1688978442247135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 5,33</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 6,06</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 4,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.602418403930651</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.176694877791507</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.605481142613995</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.345051975741831</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.498574262178483</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.665270673263481</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.007242992267692719</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.002903858241045698</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.001925471490032736</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.0508879935026749</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.0354058407461903</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.02933677781187823</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.03898565435864214</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.04080891863802601</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03094470309527795</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
